--- a/Traceback_Model/Results/Scenario_2/results_scenario_2.xlsx
+++ b/Traceback_Model/Results/Scenario_2/results_scenario_2.xlsx
@@ -6,7 +6,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="All_Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Best_Combination" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -17098,4 +17099,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0000514336006743721</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.7504377789202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>